--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325556.3918026246</v>
+        <v>388611.9305032946</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3842442.348868398</v>
+        <v>5530772.757762743</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10498891.99518631</v>
+        <v>12153624.62894364</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8698202.045674903</v>
+        <v>7792903.264408386</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
-        <v>212.2853856434421</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>135.4141600157168</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>112.4598285550407</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>281.143176090144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>45.44580843958667</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>7.116363907566526</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>47.79495529238158</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="V13" t="n">
-        <v>193.7787769293047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>272.3802480317506</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>224.6792008748445</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>99.4211458720943</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.900780601835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1742,13 +1742,13 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>87.96906857603724</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>121.4683101124997</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>192.2181028305271</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.7285583629351</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>165.1948097322625</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>49.9467516048418</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>39.45664893657238</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>370.2623872790764</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H21" t="n">
         <v>99.90681807664345</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>8.352440735963965</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>35.4652731219029</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.1220182984782</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>300.3914993451207</v>
       </c>
       <c r="G23" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>165.0140383262353</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>22.41879671946065</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>90.06029678473462</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>124.1345902132814</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1258206962896</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>53.14598027503732</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.690553466730844</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>107.5759848528684</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>198.5622246230542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>39.54337075344576</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>61.44251898056581</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>334.0339613348189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>9.579478589972922</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.45430652054238</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>59.49349857835685</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
         <v>251.1547862223006</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>299.1512667825937</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.9059981119727</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>228.1641319420677</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>151.5866049551238</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>353.0096659055828</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>2.454476553030544</v>
       </c>
       <c r="X40" t="n">
-        <v>165.0140383262353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>152.6176005213337</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>245.2562337790484</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.192132874536509</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.454476553030551</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.7435632048462548</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>371.0309312734598</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>101.289387533223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>55.04605772994853</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U8" t="n">
-        <v>376.1934816808115</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V8" t="n">
-        <v>376.1934816808115</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1624.828557297788</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="C11" t="n">
-        <v>1624.828557297788</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="D11" t="n">
-        <v>1266.562858691037</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="E11" t="n">
-        <v>880.774606092793</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="F11" t="n">
-        <v>469.7887013031854</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L11" t="n">
-        <v>709.3115823537878</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M11" t="n">
-        <v>1341.029393337099</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N11" t="n">
-        <v>1968.337061396946</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>925.4698669269691</v>
       </c>
       <c r="Q11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.045976980643</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.045976980643</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.277321710528</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="X11" t="n">
-        <v>1908.811563449448</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.828557297788</v>
+        <v>535.7308260385153</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>695.4711391644965</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>521.0181098833696</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238404</v>
+        <v>372.0837002221182</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>212.8462452166627</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K12" t="n">
-        <v>295.3416275592179</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L12" t="n">
-        <v>799.7031674253365</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.248516892441</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>871.6002661162441</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R12" t="n">
-        <v>2613.934077382829</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.467288245464</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="T12" t="n">
-        <v>2267.477992405552</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="V12" t="n">
-        <v>1804.187096684975</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>863.6864761845645</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L13" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M13" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N13" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O13" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P13" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>972.0637790746418</v>
       </c>
       <c r="T13" t="n">
-        <v>827.0064043113226</v>
+        <v>972.0637790746418</v>
       </c>
       <c r="U13" t="n">
-        <v>537.8542278890025</v>
+        <v>714.4017811723163</v>
       </c>
       <c r="V13" t="n">
-        <v>342.1180895765735</v>
+        <v>459.7172929664295</v>
       </c>
       <c r="W13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.0552950641039</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.0552950641039</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.0552950641039</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1071.886434413042</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="C14" t="n">
-        <v>1071.886434413042</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="D14" t="n">
-        <v>713.620735806292</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="E14" t="n">
-        <v>327.8324832080478</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F14" t="n">
-        <v>327.8324832080478</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J14" t="n">
-        <v>241.3408185533492</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K14" t="n">
-        <v>644.8079315733946</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L14" t="n">
-        <v>1032.36013938198</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M14" t="n">
-        <v>1219.059552207387</v>
+        <v>510.1198282131455</v>
       </c>
       <c r="N14" t="n">
-        <v>1413.39376509937</v>
+        <v>704.4540411051279</v>
       </c>
       <c r="O14" t="n">
-        <v>1960.554969866447</v>
+        <v>874.6230664220874</v>
       </c>
       <c r="P14" t="n">
-        <v>2389.870016205742</v>
+        <v>985.3573916716139</v>
       </c>
       <c r="Q14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T14" t="n">
-        <v>2420.246115248354</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U14" t="n">
-        <v>2166.554411993505</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V14" t="n">
-        <v>1835.491524649934</v>
+        <v>762.6795137908834</v>
       </c>
       <c r="W14" t="n">
-        <v>1835.491524649934</v>
+        <v>505.0175158885579</v>
       </c>
       <c r="X14" t="n">
-        <v>1462.025766388854</v>
+        <v>505.0175158885579</v>
       </c>
       <c r="Y14" t="n">
-        <v>1071.886434413042</v>
+        <v>278.0688281361897</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>258.2736277454446</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238404</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183849</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452699</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929637</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K15" t="n">
-        <v>382.1293238454227</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L15" t="n">
-        <v>886.4908637115414</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M15" t="n">
-        <v>1065.988200066146</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686615</v>
+        <v>657.2761084115892</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.364752439338</v>
+        <v>816.7884210803498</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>925.4780486076487</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.467288245464</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="T15" t="n">
-        <v>2267.477992405552</v>
+        <v>673.8854267159313</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>673.8854267159313</v>
       </c>
       <c r="V15" t="n">
-        <v>1804.187096684975</v>
+        <v>673.8854267159313</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>673.8854267159313</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>466.0339265103985</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>258.2736277454446</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.6371024675198</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961285</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961285</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>335.9036227363912</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L16" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M16" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N16" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O16" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P16" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="S16" t="n">
-        <v>929.940338259059</v>
+        <v>682.423265665017</v>
       </c>
       <c r="T16" t="n">
-        <v>704.3111415714239</v>
+        <v>682.423265665017</v>
       </c>
       <c r="U16" t="n">
-        <v>704.3111415714239</v>
+        <v>682.423265665017</v>
       </c>
       <c r="V16" t="n">
-        <v>449.6266533655371</v>
+        <v>682.423265665017</v>
       </c>
       <c r="W16" t="n">
-        <v>449.6266533655371</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="X16" t="n">
-        <v>221.6371024675198</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.6371024675198</v>
+        <v>424.7612677626914</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1074.934305921608</v>
+        <v>1289.13715517095</v>
       </c>
       <c r="C17" t="n">
-        <v>880.774606092793</v>
+        <v>1289.13715517095</v>
       </c>
       <c r="D17" t="n">
-        <v>880.774606092793</v>
+        <v>1289.13715517095</v>
       </c>
       <c r="E17" t="n">
-        <v>880.774606092793</v>
+        <v>903.348902572706</v>
       </c>
       <c r="F17" t="n">
-        <v>469.7887013031854</v>
+        <v>903.348902572706</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961285</v>
+        <v>486.2611208091335</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
@@ -5521,19 +5521,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.621189819594</v>
+        <v>797.5335819773815</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.320602645002</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N17" t="n">
-        <v>1578.654815536984</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O17" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P17" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5545,22 +5545,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U17" t="n">
-        <v>2225.139236222622</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V17" t="n">
-        <v>2225.139236222622</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W17" t="n">
-        <v>2225.139236222622</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X17" t="n">
-        <v>1851.673477961542</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y17" t="n">
-        <v>1461.53414598573</v>
+        <v>1289.13715517095</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D18" t="n">
         <v>642.7351650238404</v>
@@ -5594,25 +5594,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023184</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L18" t="n">
-        <v>1005.150115568437</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M18" t="n">
-        <v>1232.27200203395</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N18" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>375.5624076444644</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C19" t="n">
-        <v>375.5624076444644</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D19" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E19" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
         <v>52.70091953961285</v>
@@ -5706,19 +5706,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>885.7721568249551</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V19" t="n">
-        <v>885.7721568249551</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W19" t="n">
-        <v>596.3549867879944</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="X19" t="n">
-        <v>596.3549867879944</v>
+        <v>774.1947858536254</v>
       </c>
       <c r="Y19" t="n">
-        <v>375.5624076444644</v>
+        <v>553.4022067100952</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1993.791074238199</v>
+        <v>1249.737123033205</v>
       </c>
       <c r="C20" t="n">
-        <v>1624.828557297788</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D20" t="n">
-        <v>1266.562858691037</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E20" t="n">
         <v>880.774606092793</v>
@@ -5752,19 +5752,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K20" t="n">
-        <v>644.8079315733946</v>
+        <v>411.5206624279944</v>
       </c>
       <c r="L20" t="n">
-        <v>1032.36013938198</v>
+        <v>964.3339206741936</v>
       </c>
       <c r="M20" t="n">
-        <v>1219.059552207387</v>
+        <v>1596.051731657505</v>
       </c>
       <c r="N20" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O20" t="n">
         <v>1960.554969866447</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U20" t="n">
-        <v>2420.246115248354</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V20" t="n">
-        <v>2380.390914302321</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W20" t="n">
-        <v>2380.390914302321</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X20" t="n">
-        <v>2380.390914302321</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="Y20" t="n">
-        <v>2380.390914302321</v>
+        <v>1636.336963097326</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G21" t="n">
         <v>199.5217544044918</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.9407694441223</v>
+        <v>870.9871361687179</v>
       </c>
       <c r="C22" t="n">
-        <v>355.9407694441223</v>
+        <v>702.0509532408111</v>
       </c>
       <c r="D22" t="n">
-        <v>347.5039606199163</v>
+        <v>551.9343138284753</v>
       </c>
       <c r="E22" t="n">
-        <v>199.5908670375232</v>
+        <v>404.0212202460822</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961285</v>
+        <v>257.1312727481718</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70091953961285</v>
+        <v>88.52442774355518</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70091953961285</v>
+        <v>88.52442774355518</v>
       </c>
       <c r="I22" t="n">
         <v>52.70091953961285</v>
@@ -5940,22 +5940,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V22" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W22" t="n">
-        <v>537.5892342743621</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X22" t="n">
-        <v>537.5892342743621</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y22" t="n">
-        <v>537.5892342743621</v>
+        <v>1052.635600998958</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1624.828557297788</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="C23" t="n">
-        <v>1624.828557297788</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="D23" t="n">
-        <v>1266.562858691037</v>
+        <v>1477.225826043184</v>
       </c>
       <c r="E23" t="n">
-        <v>880.774606092793</v>
+        <v>1091.437573444939</v>
       </c>
       <c r="F23" t="n">
-        <v>469.7887013031854</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G23" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H23" t="n">
         <v>52.70091953961285</v>
@@ -5989,25 +5989,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J23" t="n">
-        <v>198.7565373983365</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K23" t="n">
-        <v>602.223650418382</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L23" t="n">
-        <v>741.5523062596352</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M23" t="n">
-        <v>1373.270117242947</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N23" t="n">
-        <v>2000.577785302793</v>
+        <v>2135.742710417299</v>
       </c>
       <c r="O23" t="n">
-        <v>2170.746810619753</v>
+        <v>2305.911735734258</v>
       </c>
       <c r="P23" t="n">
-        <v>2600.061856959047</v>
+        <v>2416.646060983785</v>
       </c>
       <c r="Q23" t="n">
         <v>2635.045976980643</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V23" t="n">
-        <v>2303.983089637072</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W23" t="n">
-        <v>1951.214434366958</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X23" t="n">
-        <v>1951.214434366958</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y23" t="n">
-        <v>1951.214434366958</v>
+        <v>1835.491524649934</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D24" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J24" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K24" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L24" t="n">
-        <v>886.4908637115414</v>
+        <v>843.4113519543012</v>
       </c>
       <c r="M24" t="n">
-        <v>1527.036213178646</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.206884640153</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O24" t="n">
         <v>2295.642893392876</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,7 +6101,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
@@ -6113,7 +6113,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C25" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D25" t="n">
         <v>52.70091953961285</v>
@@ -6171,28 +6171,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R25" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S25" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T25" t="n">
-        <v>885.9547542047806</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U25" t="n">
-        <v>596.8025777824604</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V25" t="n">
-        <v>342.1180895765735</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="W25" t="n">
-        <v>52.70091953961285</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="X25" t="n">
-        <v>52.70091953961285</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.70091953961285</v>
+        <v>384.4660237821882</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1576.703292474627</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="C26" t="n">
-        <v>1207.740775534215</v>
+        <v>1744.521527897677</v>
       </c>
       <c r="D26" t="n">
-        <v>849.4750769274647</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E26" t="n">
-        <v>463.6868243292204</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F26" t="n">
-        <v>52.70091953961285</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I26" t="n">
         <v>52.70091953961285</v>
@@ -6229,16 +6229,16 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K26" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L26" t="n">
-        <v>784.1365874146478</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M26" t="n">
-        <v>1415.85439839796</v>
+        <v>1094.950439952506</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.188611289942</v>
+        <v>1722.258108012353</v>
       </c>
       <c r="O26" t="n">
         <v>1960.554969866447</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.830939477471</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V26" t="n">
-        <v>2478.830939477471</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W26" t="n">
-        <v>2478.830939477471</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X26" t="n">
-        <v>2353.44246451456</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y26" t="n">
-        <v>1963.303132538749</v>
+        <v>1835.491524649934</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K27" t="n">
-        <v>238.9679910598653</v>
+        <v>295.3416275592174</v>
       </c>
       <c r="L27" t="n">
-        <v>743.3295309259838</v>
+        <v>799.703167425336</v>
       </c>
       <c r="M27" t="n">
-        <v>1094.033005337444</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.206884640153</v>
+        <v>1638.905258545105</v>
       </c>
       <c r="O27" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297828</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980642</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>650.1945570251878</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C28" t="n">
-        <v>481.2583740972809</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D28" t="n">
-        <v>481.2583740972809</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E28" t="n">
-        <v>333.3452805148878</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F28" t="n">
-        <v>333.3452805148878</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G28" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H28" t="n">
         <v>52.70091953961285</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>998.9527926403341</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.635600998958</v>
+        <v>709.8006162180138</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.635600998958</v>
+        <v>709.8006162180138</v>
       </c>
       <c r="W28" t="n">
-        <v>1052.635600998958</v>
+        <v>420.3834461810533</v>
       </c>
       <c r="X28" t="n">
-        <v>1052.635600998958</v>
+        <v>420.3834461810533</v>
       </c>
       <c r="Y28" t="n">
-        <v>831.8430218554275</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1567.960238260695</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C29" t="n">
-        <v>1198.997721320284</v>
+        <v>957.5453149362363</v>
       </c>
       <c r="D29" t="n">
-        <v>1198.997721320284</v>
+        <v>599.2796163294859</v>
       </c>
       <c r="E29" t="n">
-        <v>1198.997721320284</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="F29" t="n">
-        <v>788.0118165306759</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G29" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I29" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
-        <v>73.93516953299616</v>
+        <v>76.07976811573525</v>
       </c>
       <c r="K29" t="n">
-        <v>156.4983241075885</v>
+        <v>479.5468811357807</v>
       </c>
       <c r="L29" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M29" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N29" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O29" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P29" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U29" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V29" t="n">
-        <v>2303.983089637072</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.214434366958</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X29" t="n">
-        <v>1577.748676105878</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y29" t="n">
-        <v>1577.748676105878</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961264</v>
+        <v>89.49481119935409</v>
       </c>
       <c r="K30" t="n">
-        <v>120.3087392029697</v>
+        <v>157.1026308627111</v>
       </c>
       <c r="L30" t="n">
-        <v>624.6702790690882</v>
+        <v>661.4641707288297</v>
       </c>
       <c r="M30" t="n">
-        <v>986.7313792423964</v>
+        <v>1302.009520195934</v>
       </c>
       <c r="N30" t="n">
-        <v>1638.905258545105</v>
+        <v>1954.183399498643</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.341267297828</v>
+        <v>2503.619408251366</v>
       </c>
       <c r="P30" t="n">
         <v>2612.309035778665</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.6371024675198</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961285</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E31" t="n">
         <v>52.70091953961285</v>
@@ -6648,25 +6648,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>852.067697339307</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>852.067697339307</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>852.067697339307</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V31" t="n">
-        <v>852.067697339307</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W31" t="n">
-        <v>852.067697339307</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="X31" t="n">
-        <v>624.0781464412896</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="Y31" t="n">
-        <v>403.2855672977595</v>
+        <v>532.3791173645815</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1117.337176839117</v>
+        <v>1328.626009176457</v>
       </c>
       <c r="C32" t="n">
-        <v>748.3746598987057</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D32" t="n">
-        <v>390.1089612919552</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E32" t="n">
-        <v>390.1089612919552</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F32" t="n">
-        <v>52.70091953961285</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
         <v>52.70091953961285</v>
@@ -6706,16 +6706,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M32" t="n">
-        <v>1104.666818129291</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N32" t="n">
-        <v>1731.974486189138</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.135690956215</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6733,19 +6733,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2225.139236222622</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V32" t="n">
-        <v>1894.076348879051</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W32" t="n">
-        <v>1894.076348879051</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X32" t="n">
-        <v>1894.076348879051</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y32" t="n">
-        <v>1503.937016903239</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D33" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L33" t="n">
         <v>1005.150115568437</v>
       </c>
       <c r="M33" t="n">
-        <v>1184.647451923041</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N33" t="n">
         <v>1430.928743686615</v>
@@ -6797,10 +6797,10 @@
         <v>1980.364752439338</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
         <v>2613.934077382829</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.3771605395855</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="C34" t="n">
-        <v>52.70091953961285</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="D34" t="n">
-        <v>52.70091953961285</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G34" t="n">
         <v>52.70091953961285</v>
@@ -6882,28 +6882,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>1052.635600998958</v>
+        <v>999.6514529984098</v>
       </c>
       <c r="S34" t="n">
-        <v>1052.635600998958</v>
+        <v>999.6514529984098</v>
       </c>
       <c r="T34" t="n">
-        <v>827.0064043113226</v>
+        <v>999.6514529984098</v>
       </c>
       <c r="U34" t="n">
-        <v>537.8542278890025</v>
+        <v>999.6514529984098</v>
       </c>
       <c r="V34" t="n">
-        <v>283.1697396831156</v>
+        <v>999.6514529984098</v>
       </c>
       <c r="W34" t="n">
-        <v>283.1697396831156</v>
+        <v>999.6514529984098</v>
       </c>
       <c r="X34" t="n">
-        <v>283.1697396831156</v>
+        <v>771.6619021003925</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.3771605395855</v>
+        <v>550.8693229568623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1218.437593867876</v>
+        <v>915.671396909871</v>
       </c>
       <c r="C35" t="n">
-        <v>849.4750769274647</v>
+        <v>915.671396909871</v>
       </c>
       <c r="D35" t="n">
-        <v>849.4750769274647</v>
+        <v>915.671396909871</v>
       </c>
       <c r="E35" t="n">
-        <v>463.6868243292204</v>
+        <v>529.8831443116267</v>
       </c>
       <c r="F35" t="n">
-        <v>52.70091953961285</v>
+        <v>529.8831443116267</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961285</v>
+        <v>112.7953625480541</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
-        <v>241.3408185533492</v>
+        <v>76.0797681157357</v>
       </c>
       <c r="K35" t="n">
-        <v>644.8079315733946</v>
+        <v>479.5468811357812</v>
       </c>
       <c r="L35" t="n">
-        <v>1197.621189819594</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M35" t="n">
-        <v>1829.339000802906</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N35" t="n">
-        <v>2023.673213694888</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O35" t="n">
-        <v>2193.842239011848</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P35" t="n">
         <v>2389.870016205742</v>
@@ -6967,22 +6967,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U35" t="n">
-        <v>2225.139236222622</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V35" t="n">
-        <v>1894.076348879051</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W35" t="n">
-        <v>1591.903352128956</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="X35" t="n">
-        <v>1218.437593867876</v>
+        <v>1305.810728885683</v>
       </c>
       <c r="Y35" t="n">
-        <v>1218.437593867876</v>
+        <v>915.671396909871</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D36" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E36" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F36" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J36" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K36" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L36" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M36" t="n">
-        <v>1232.27200203395</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.928743686615</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439338</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P36" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q36" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7049,19 +7049,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U36" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V36" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y36" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>624.0781464412896</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U37" t="n">
-        <v>624.0781464412896</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V37" t="n">
-        <v>624.0781464412896</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W37" t="n">
-        <v>624.0781464412896</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X37" t="n">
-        <v>624.0781464412896</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y37" t="n">
-        <v>403.2855672977595</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.410358284908</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="C38" t="n">
-        <v>916.4478413444967</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="D38" t="n">
-        <v>558.1821427377463</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E38" t="n">
-        <v>172.393890139502</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F38" t="n">
-        <v>172.393890139502</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L38" t="n">
-        <v>1032.36013938198</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M38" t="n">
-        <v>1219.059552207387</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2381.354273725794</v>
+        <v>2325.713156694518</v>
       </c>
       <c r="V38" t="n">
-        <v>2381.354273725794</v>
+        <v>2325.713156694518</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.585618455679</v>
+        <v>1972.944501424404</v>
       </c>
       <c r="X38" t="n">
-        <v>2028.585618455679</v>
+        <v>1972.944501424404</v>
       </c>
       <c r="Y38" t="n">
-        <v>1672.01019834903</v>
+        <v>1582.805169448592</v>
       </c>
     </row>
     <row r="39">
@@ -7244,13 +7244,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
         <v>171.3601713965085</v>
@@ -7259,16 +7259,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L39" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M39" t="n">
-        <v>1232.27200203395</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.928743686615</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7277,7 +7277,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7362,22 +7362,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U40" t="n">
-        <v>763.4834245766374</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V40" t="n">
-        <v>508.7989363707505</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W40" t="n">
-        <v>219.3817663337899</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>880.774606092793</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="C41" t="n">
-        <v>880.774606092793</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="D41" t="n">
-        <v>880.774606092793</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E41" t="n">
-        <v>880.774606092793</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F41" t="n">
-        <v>469.7887013031854</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H41" t="n">
         <v>52.70091953961286</v>
@@ -7411,22 +7411,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K41" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L41" t="n">
-        <v>709.3115823537878</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M41" t="n">
-        <v>1341.029393337099</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N41" t="n">
-        <v>1623.585605852676</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O41" t="n">
-        <v>2170.746810619753</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P41" t="n">
         <v>2600.061856959048</v>
@@ -7444,19 +7444,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2324.671747031679</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.608859688109</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W41" t="n">
-        <v>1640.840204417995</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X41" t="n">
-        <v>1267.374446156915</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y41" t="n">
-        <v>1267.374446156915</v>
+        <v>1173.80006912892</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L42" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M42" t="n">
-        <v>817.5155100726172</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N42" t="n">
-        <v>1469.689389375326</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O42" t="n">
         <v>1980.364752439339</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.91519517045782</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961286</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961286</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="E43" t="n">
         <v>52.70091953961286</v>
@@ -7602,19 +7602,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U43" t="n">
-        <v>827.0064043113226</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V43" t="n">
-        <v>572.3219161054358</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9047460684752</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X43" t="n">
-        <v>54.91519517045782</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.91519517045782</v>
+        <v>55.18018878509827</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1894.926407702117</v>
+        <v>779.9291350867751</v>
       </c>
       <c r="C44" t="n">
-        <v>1525.963890761706</v>
+        <v>410.9666181463634</v>
       </c>
       <c r="D44" t="n">
-        <v>1167.698192154955</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E44" t="n">
-        <v>781.9099395567109</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F44" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G44" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>477.4022825530416</v>
+        <v>256.7652667212226</v>
       </c>
       <c r="L44" t="n">
-        <v>1030.215540799241</v>
+        <v>809.5785249674218</v>
       </c>
       <c r="M44" t="n">
-        <v>1216.914953624649</v>
+        <v>996.2779377928294</v>
       </c>
       <c r="N44" t="n">
-        <v>1413.39376509937</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O44" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P44" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7675,25 +7675,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2634.294903036353</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V44" t="n">
-        <v>2634.294903036353</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W44" t="n">
-        <v>2281.526247766239</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X44" t="n">
-        <v>2281.526247766239</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="Y44" t="n">
-        <v>2281.526247766239</v>
+        <v>1166.528975150897</v>
       </c>
     </row>
     <row r="45">
@@ -7718,40 +7718,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L45" t="n">
-        <v>989.1812241132636</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M45" t="n">
-        <v>1168.678560467868</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N45" t="n">
-        <v>1820.852439770578</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.364752439338</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P45" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
         <v>2464.467288245464</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.7537418798555</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C46" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
         <v>153.7488491352227</v>
@@ -7842,16 +7842,16 @@
         <v>763.4834245766374</v>
       </c>
       <c r="V46" t="n">
-        <v>763.4834245766374</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W46" t="n">
-        <v>474.0662545396768</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X46" t="n">
-        <v>474.0662545396768</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y46" t="n">
-        <v>371.7537418798555</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>60.49244923701507</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,25 +8771,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>176.8008973295434</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>127.2770751262505</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>60.49244923701499</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,25 +9008,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>167.9634363311155</v>
+        <v>54.42200251657025</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>72.85507260968011</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>13.532317740135</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>213.8698272853573</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>257.5983215357635</v>
       </c>
       <c r="L20" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>126.0821897629701</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>185.2684807830934</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>207.4678568043324</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>20.72114122105287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>182.0175083429755</v>
+        <v>68.81599650215605</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>172.9354929867223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.166261194685955</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>423.078448185254</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>43.39875231298033</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>184.4078422411146</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>458.0981188384286</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M32" t="n">
-        <v>135.1826443325614</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N33" t="n">
-        <v>48.10560617263502</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>2.166261194686406</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,16 +10594,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>86.1550019640076</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>48.10560617263482</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569022</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>98.93303561408973</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>354.7101519143957</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>89.11313093292347</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>310.6366017047613</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>354.7101519143957</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>101.2797400137718</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.16626119468566</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>354.7101519143952</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,22 +22549,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3919735539278</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22752,13 +22752,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3976559772408</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22837,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22871,13 +22871,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>70.35882518776063</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>236.9120424101793</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23235,19 +23235,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>151.7906678184092</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>157.8315260226345</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>138.6949576672599</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>105.0947625659095</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>198.5663318697378</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,19 +23466,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>157.5709266077371</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>31.17527673479472</v>
       </c>
       <c r="V13" t="n">
-        <v>58.35886639452332</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.43762041328873</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>126.8449921489595</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>140.5366559141862</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23548,22 +23548,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.66688054683266</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>94.15559079411076</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>161.5587377812091</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>73.28735311622144</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>58.46489407053193</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>83.89757178761896</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>31.43762041328876</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>173.0547889404804</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>4.312325712280426</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
         <v>123.266557879417</v>
@@ -23946,16 +23946,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>121.0658449258345</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>236.5762467317492</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>288.2956095335625</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>15.97555137697719</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>140.2630322822484</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>87.80128475751408</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176898</v>
@@ -24180,7 +24180,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.61182336500235</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>106.4845463965907</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24259,16 +24259,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>58.35886639452337</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>196.1658566326341</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>275.212594986273</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>245.5965104651876</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.7949558582808</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
         <v>123.266557879417</v>
@@ -24654,16 +24654,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>170.2269244457214</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>373.0432881967498</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>274.3543852193934</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,25 +24888,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>6.803657277064445</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>179.041282598649</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>303.8303727904417</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>72.84208440689258</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -24973,16 +24973,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>157.6673425086549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677913</v>
+        <v>76.71887514724892</v>
       </c>
       <c r="S34" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>255.5473854968587</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>50.08970193481935</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,25 +25362,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>4.466906608786047</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>58.35886639452332</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>99.56818126717684</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>33.22827275047081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25602,7 +25602,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>284.0685217835605</v>
       </c>
       <c r="X40" t="n">
-        <v>60.69561706280189</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25684,7 +25684,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>98.53718570096692</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>140.9817048770052</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0546882240913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>143.9794860935386</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938903</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>250.4112230174544</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>15.20700738259382</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>60.69561706280197</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.2952658188717</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498839.2872644282</v>
+        <v>358732.3883940966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498839.2872644282</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836519.6495866909</v>
+        <v>549252.2745108758</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836519.6495866911</v>
+        <v>549252.2745108757</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095899</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.404280959</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>95642.40428095899</v>
       </c>
       <c r="E2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="F2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.1137389639</v>
       </c>
       <c r="G2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="H2" t="n">
         <v>237303.5238233911</v>
       </c>
       <c r="I2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.523823391</v>
       </c>
       <c r="J2" t="n">
         <v>237303.5238233911</v>
@@ -26343,7 +26343,7 @@
         <v>237303.5238233911</v>
       </c>
       <c r="L2" t="n">
-        <v>237303.523823391</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="M2" t="n">
         <v>237303.5238233911</v>
@@ -26352,7 +26352,7 @@
         <v>237303.5238233911</v>
       </c>
       <c r="O2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="P2" t="n">
         <v>237303.5238233911</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>539786.465644841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>110641.5683420766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>52570.38263440537</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>97145.06106897155</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="E4" t="n">
+        <v>6590.838313831422</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6590.83831383142</v>
+      </c>
+      <c r="G4" t="n">
         <v>36133.96051511372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36133.96051511372</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26450,16 +26450,16 @@
         <v>36133.96051511372</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="P4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511373</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26502,16 +26502,16 @@
         <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="O5" t="n">
         <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58725.17681781856</v>
+        <v>7110.878329429212</v>
       </c>
       <c r="C6" t="n">
-        <v>22044.25471372918</v>
+        <v>21900.58433367344</v>
       </c>
       <c r="D6" t="n">
-        <v>22044.25471372928</v>
+        <v>21900.58433367343</v>
       </c>
       <c r="E6" t="n">
-        <v>-459046.0930609638</v>
+        <v>-415017.4263986072</v>
       </c>
       <c r="F6" t="n">
-        <v>142484.5114631567</v>
+        <v>124769.0392462337</v>
       </c>
       <c r="G6" t="n">
-        <v>142484.5114631567</v>
+        <v>36968.05972796076</v>
       </c>
       <c r="H6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700372</v>
       </c>
       <c r="I6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700372</v>
       </c>
       <c r="J6" t="n">
-        <v>79424.56886405042</v>
+        <v>136062.7099600464</v>
       </c>
       <c r="K6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="L6" t="n">
-        <v>142484.5114631566</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="M6" t="n">
-        <v>38380.23689675383</v>
+        <v>95039.24543563189</v>
       </c>
       <c r="N6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="O6" t="n">
-        <v>142484.5114631567</v>
+        <v>50464.56700106574</v>
       </c>
       <c r="P6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26822,16 +26822,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O4" t="n">
         <v>658.7614942451607</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>403.6761163218584</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218584</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218584</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32162,7 +32162,7 @@
         <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M16" t="n">
         <v>167.7591540676927</v>
@@ -32469,7 +32469,7 @@
         <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651562</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937401</v>
@@ -32481,7 +32481,7 @@
         <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N20" t="n">
         <v>425.710248335967</v>
@@ -32554,7 +32554,7 @@
         <v>120.6044214847383</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L21" t="n">
         <v>277.1701353512822</v>
@@ -32581,7 +32581,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U21" t="n">
         <v>0.08398246702897151</v>
@@ -32624,7 +32624,7 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I22" t="n">
         <v>32.18391704784131</v>
@@ -32636,7 +32636,7 @@
         <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M22" t="n">
         <v>167.7591540676927</v>
@@ -32651,7 +32651,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R22" t="n">
         <v>48.12020970937817</v>
@@ -33529,7 +33529,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U33" t="n">
         <v>0.08398246702897151</v>
@@ -34003,7 +34003,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U39" t="n">
         <v>0.08398246702897151</v>
@@ -34477,7 +34477,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
         <v>0.08398246702897151</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P11" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>95.82994420832325</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>245.0916242622273</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>150.2436824009747</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>249.0777147172248</v>
       </c>
       <c r="N14" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6268117378475</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>95.82167988440433</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517163</v>
+        <v>154.2683337414009</v>
       </c>
       <c r="M17" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
-        <v>385.7577316459225</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452625</v>
+        <v>245.0916242622273</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
         <v>200.663375406732</v>
@@ -35983,7 +35983,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>340.9954473686851</v>
       </c>
       <c r="L20" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
@@ -36299,7 +36299,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>147.5309271300239</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K23" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L23" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
         <v>638.0987989730422</v>
@@ -36375,10 +36375,10 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.33749497130819</v>
+        <v>220.6059757544016</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>509.4561008748672</v>
+        <v>346.0836123757404</v>
       </c>
       <c r="M24" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>221.3845166277849</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P24" t="n">
         <v>109.7875025528271</v>
@@ -36597,7 +36597,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K26" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L26" t="n">
         <v>140.7360160012659</v>
@@ -36606,10 +36606,10 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N26" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O26" t="n">
-        <v>353.9054127035407</v>
+        <v>240.7039008627212</v>
       </c>
       <c r="P26" t="n">
         <v>433.6515619588832</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622271</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>354.2459337489494</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.44873736705384</v>
+        <v>23.61499856173979</v>
       </c>
       <c r="K29" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>611.6637136654638</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N29" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O29" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>37.16554713105197</v>
       </c>
       <c r="K30" t="n">
         <v>68.29072693268387</v>
@@ -36919,7 +36919,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>365.7182830033416</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
         <v>658.7614942451606</v>
@@ -36928,7 +36928,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q30" t="n">
         <v>22.96660727472423</v>
@@ -37074,19 +37074,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M32" t="n">
-        <v>323.7679098127711</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
         <v>247.6524856312129</v>
@@ -37156,10 +37156,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N33" t="n">
-        <v>248.768981579367</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>23.61499856174024</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
@@ -37314,16 +37314,16 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O35" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>198.0078557514081</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
         <v>247.6524856312129</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>332.7559639452625</v>
@@ -37393,7 +37393,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>229.4160469348619</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
         <v>200.663375406732</v>
@@ -37402,10 +37402,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097293</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>287.5183010942995</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M39" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N39" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269929</v>
+        <v>515.833700064659</v>
       </c>
       <c r="P39" t="n">
         <v>428.2502711927643</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K41" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>285.4103156722996</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>422.4894554921619</v>
       </c>
       <c r="Q41" t="n">
         <v>35.33749497130819</v>
@@ -37864,16 +37864,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
-        <v>515.833700064659</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
@@ -38019,7 +38019,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>407.5425384040863</v>
+        <v>184.6768658466934</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517163</v>
@@ -38028,7 +38028,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>198.4634459340618</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233105</v>
@@ -38037,7 +38037,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
-        <v>493.3259074858033</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q45" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
